--- a/biology/Zoologie/Bécarde/Bécarde.xlsx
+++ b/biology/Zoologie/Bécarde/Bécarde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9carde</t>
+          <t>Bécarde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bécarde est le nom que la nomenclature aviaire en langue française (mise à jour) donne à 18 espèces d'oiseaux qui constituent le genre Pachyramphus et le genre monospécifique Xenopsaris, tous deux de la famille des Tyrannidae selon HBW et Clements, ou de la famille des Cotingidae selon Howard &amp; Moore et l'IOC, et de l'ordre des Passeriformes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9carde</t>
+          <t>Bécarde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste des oiseaux appelés « bécarde » en français</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bécarde à ailes blanches - Pachyramphus polychopterus - White-winged Becard
 Bécarde à calotte noire - Pachyramphus marginatus - Black-capped Becard
